--- a/My Test Tracker Original GATE 2023.xlsx
+++ b/My Test Tracker Original GATE 2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Gate 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Gate 2022 &amp; 2023\IN GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4BD4FC-2549-4DD7-B5C6-4E904E54A08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4122DA-A980-4D83-A6FF-F5D88CC2C91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{158952DD-A7DC-477E-91D8-188954568D39}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -718,22 +718,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -743,15 +773,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -761,162 +782,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1054,36 +927,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1399,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E053581-A6B0-45B0-A9DB-B07F5A1622B0}">
   <dimension ref="A3:W83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:K8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,103 +1260,103 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="52"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="59"/>
       <c r="S6" s="36"/>
       <c r="T6" s="36"/>
       <c r="U6" s="36"/>
@@ -1524,17 +1367,17 @@
         <v>1</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1569,20 +1412,20 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
+      <c r="C9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
       <c r="L9" s="5">
         <v>17</v>
       </c>
@@ -1599,26 +1442,26 @@
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5" t="e">
-        <f xml:space="preserve"> (S9-R9)/(S9)*100</f>
+        <f t="shared" ref="U9:U11" si="0" xml:space="preserve"> (S9-R9)/(S9)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
+      <c r="C10" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
       <c r="L10" s="5">
         <v>17</v>
       </c>
@@ -1630,31 +1473,31 @@
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="9"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5" t="e">
-        <f t="shared" ref="U10:U15" si="0" xml:space="preserve"> (S10-R10)/(S10)*100</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="C11" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
       <c r="L11" s="5">
         <v>17</v>
       </c>
@@ -1677,20 +1520,20 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="C12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
       <c r="L12" s="5">
         <v>17</v>
       </c>
@@ -1702,31 +1545,28 @@
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="8"/>
+      <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+      <c r="C13" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
       <c r="L13" s="5">
         <v>17</v>
       </c>
@@ -1738,31 +1578,28 @@
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
+      <c r="C14" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
       <c r="L14" s="5">
         <v>17</v>
       </c>
@@ -1779,26 +1616,26 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="U14" si="1" xml:space="preserve"> (S14-R14)/(S14)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
+      <c r="C15" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
       <c r="L15" s="5">
         <v>17</v>
       </c>
@@ -1810,31 +1647,28 @@
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="8"/>
+      <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="C16" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
       <c r="L16" s="5">
         <v>17</v>
       </c>
@@ -1854,20 +1688,20 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="C17" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
       <c r="L17" s="5">
         <v>17</v>
       </c>
@@ -1879,28 +1713,31 @@
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="8"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="U17" s="5" t="e">
+        <f t="shared" ref="U17:U18" si="2" xml:space="preserve"> (S17-R17)/(S17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
+      <c r="C18" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
       <c r="L18" s="5">
         <v>17</v>
       </c>
@@ -1912,31 +1749,31 @@
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="9"/>
+      <c r="Q18" s="8"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5" t="e">
-        <f t="shared" ref="U18" si="1" xml:space="preserve"> (S18-R18)/(S18)*100</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
+      <c r="C19" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
       <c r="L19" s="5">
         <v>17</v>
       </c>
@@ -1948,28 +1785,31 @@
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="Q19" s="9"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="U19" s="5" t="e">
+        <f t="shared" ref="U19" si="3" xml:space="preserve"> (S19-R19)/(S19)*100</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
+      <c r="C20" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
       <c r="L20" s="5">
         <v>17</v>
       </c>
@@ -1989,20 +1829,20 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
+      <c r="C21" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
       <c r="L21" s="5">
         <v>17</v>
       </c>
@@ -2014,31 +1854,31 @@
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="8"/>
+      <c r="Q21" s="9"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5" t="e">
-        <f t="shared" ref="U21:U23" si="2" xml:space="preserve"> (S21-R21)/(S21)*100</f>
+        <f t="shared" ref="U21:U22" si="4" xml:space="preserve"> (S21-R21)/(S21)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
+      <c r="C22" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
       <c r="L22" s="5">
         <v>17</v>
       </c>
@@ -2055,26 +1895,26 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
+      <c r="C23" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
       <c r="L23" s="5">
         <v>17</v>
       </c>
@@ -2086,31 +1926,31 @@
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="8"/>
+      <c r="Q23" s="9"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> (S23-R23)/(S23)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
+      <c r="C24" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
       <c r="L24" s="5">
         <v>17</v>
       </c>
@@ -2122,28 +1962,31 @@
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="Q24" s="8"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
+      <c r="U24" s="5" t="e">
+        <f t="shared" ref="U24" si="5" xml:space="preserve"> (S24-R24)/(S24)*100</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
+      <c r="C25" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
       <c r="L25" s="5">
         <v>17</v>
       </c>
@@ -2155,31 +1998,28 @@
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-      <c r="Q25" s="9"/>
+      <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="5" t="e">
-        <f t="shared" ref="U25" si="3" xml:space="preserve"> (S25-R25)/(S25)*100</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="U25" s="5"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
+      <c r="C26" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
       <c r="L26" s="5">
         <v>17</v>
       </c>
@@ -2199,20 +2039,22 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>19</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="60">
+        <v>44856</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
       <c r="L27" s="5">
         <v>17</v>
       </c>
@@ -2224,31 +2066,33 @@
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="9"/>
+      <c r="Q27" s="8"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5" t="e">
-        <f t="shared" ref="U27:U28" si="4" xml:space="preserve"> (S27-R27)/(S27)*100</f>
+        <f xml:space="preserve"> (S27-R27)/(S27)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>20</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
+        <v>2</v>
+      </c>
+      <c r="B28" s="60">
+        <v>44856</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
       <c r="L28" s="5">
         <v>17</v>
       </c>
@@ -2265,26 +2109,28 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> (S28-R28)/(S28)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>21</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
+        <v>15</v>
+      </c>
+      <c r="B29" s="60">
+        <v>44859</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
       <c r="L29" s="5">
         <v>17</v>
       </c>
@@ -2296,7 +2142,7 @@
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
-      <c r="Q29" s="9"/>
+      <c r="Q29" s="8"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
@@ -2307,20 +2153,22 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>22</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
+        <v>16</v>
+      </c>
+      <c r="B30" s="60">
+        <v>44859</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
       <c r="L30" s="5">
         <v>17</v>
       </c>
@@ -2332,31 +2180,30 @@
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="8"/>
+      <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="5" t="e">
-        <f t="shared" ref="U30" si="5" xml:space="preserve"> (S30-R30)/(S30)*100</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="U30" s="5"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
+        <v>3</v>
+      </c>
+      <c r="B31" s="60">
+        <v>44865</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
       <c r="L31" s="5">
         <v>17</v>
       </c>
@@ -2368,28 +2215,33 @@
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+      <c r="Q31" s="8"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
+      <c r="U31" s="5" t="e">
+        <f xml:space="preserve"> (S31-R31)/(S31)*100</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
+        <v>4</v>
+      </c>
+      <c r="B32" s="60">
+        <v>44865</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
       <c r="L32" s="5">
         <v>17</v>
       </c>
@@ -2401,31 +2253,34 @@
       </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
+      <c r="Q32" s="8"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
+      <c r="U32" s="5" t="e">
+        <f xml:space="preserve"> (S32-R32)/(S32)*100</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>25</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="43"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="48"/>
       <c r="O33" s="10"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="12"/>
@@ -2433,33 +2288,33 @@
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10" t="e">
-        <f>AVERAGE(U9:U32)</f>
+        <f>AVERAGE(U9:U26)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V33" s="2"/>
     </row>
     <row r="35" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="59"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="44"/>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
@@ -2469,17 +2324,17 @@
         <v>1</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
       <c r="L38" s="4" t="s">
         <v>2</v>
       </c>
@@ -2516,17 +2371,17 @@
         <v>1</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
       <c r="L39" s="5">
         <v>33</v>
       </c>
@@ -2549,17 +2404,17 @@
         <v>2</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
       <c r="L40" s="5">
         <v>33</v>
       </c>
@@ -2582,17 +2437,17 @@
         <v>3</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
       <c r="L41" s="5">
         <v>33</v>
       </c>
@@ -2618,17 +2473,17 @@
         <v>4</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
       <c r="L42" s="5">
         <v>33</v>
       </c>
@@ -2651,17 +2506,17 @@
         <v>5</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="47" t="s">
+      <c r="C43" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
       <c r="L43" s="5">
         <v>33</v>
       </c>
@@ -2684,17 +2539,17 @@
         <v>6</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
       <c r="L44" s="5">
         <v>33</v>
       </c>
@@ -2717,17 +2572,17 @@
         <v>7</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
       <c r="L45" s="5">
         <v>33</v>
       </c>
@@ -2750,17 +2605,17 @@
         <v>8</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
       <c r="L46" s="5">
         <v>33</v>
       </c>
@@ -2783,17 +2638,17 @@
         <v>9</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
       <c r="L47" s="5">
         <v>33</v>
       </c>
@@ -2816,17 +2671,17 @@
         <v>10</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
       <c r="L48" s="5">
         <v>33</v>
       </c>
@@ -2849,17 +2704,17 @@
         <v>11</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
       <c r="L49" s="5">
         <v>33</v>
       </c>
@@ -2882,17 +2737,17 @@
         <v>12</v>
       </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
       <c r="L50" s="5">
         <v>33</v>
       </c>
@@ -2918,20 +2773,20 @@
         <v>13</v>
       </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="43"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="48"/>
       <c r="O51" s="10"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="12"/>
@@ -2948,26 +2803,26 @@
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="44" t="s">
+      <c r="A53" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="46"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="56"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -2977,17 +2832,17 @@
         <v>1</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
       <c r="L55" s="4" t="s">
         <v>2</v>
       </c>
@@ -3024,17 +2879,17 @@
         <v>1</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
       <c r="L56" s="5">
         <v>33</v>
       </c>
@@ -3057,17 +2912,17 @@
         <v>2</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="47" t="s">
+      <c r="C57" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
       <c r="L57" s="5">
         <v>33</v>
       </c>
@@ -3090,17 +2945,17 @@
         <v>3</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="47" t="s">
+      <c r="C58" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
       <c r="L58" s="5">
         <v>33</v>
       </c>
@@ -3123,17 +2978,17 @@
         <v>4</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="48" t="s">
+      <c r="C59" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
       <c r="L59" s="5">
         <v>33</v>
       </c>
@@ -3156,17 +3011,17 @@
         <v>5</v>
       </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="47" t="s">
+      <c r="C60" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
       <c r="L60" s="5">
         <v>33</v>
       </c>
@@ -3189,17 +3044,17 @@
         <v>6</v>
       </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="47" t="s">
+      <c r="C61" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="48"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
       <c r="L61" s="5">
         <v>33</v>
       </c>
@@ -3222,20 +3077,20 @@
         <v>7</v>
       </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="43"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="48"/>
       <c r="O62" s="10"/>
       <c r="P62" s="11" t="e">
         <f>AVERAGE(P56:P61)</f>
@@ -3255,25 +3110,25 @@
       <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="54"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="45"/>
+      <c r="Q64" s="45"/>
       <c r="R64"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -3281,10 +3136,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="15"/>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="49"/>
+      <c r="D65" s="52"/>
       <c r="E65" s="16" t="s">
         <v>62</v>
       </c>
@@ -3331,10 +3186,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="13"/>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D66" s="38"/>
+      <c r="D66" s="49"/>
       <c r="E66" s="24"/>
       <c r="F66" s="25"/>
       <c r="G66" s="26"/>
@@ -3355,10 +3210,10 @@
         <v>2</v>
       </c>
       <c r="B67" s="13"/>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="38"/>
+      <c r="D67" s="49"/>
       <c r="E67" s="24"/>
       <c r="F67" s="25"/>
       <c r="G67" s="26"/>
@@ -3379,10 +3234,10 @@
         <v>3</v>
       </c>
       <c r="B68" s="13"/>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="38"/>
+      <c r="D68" s="49"/>
       <c r="E68" s="24"/>
       <c r="F68" s="25"/>
       <c r="G68" s="26"/>
@@ -3403,10 +3258,10 @@
         <v>4</v>
       </c>
       <c r="B69" s="13"/>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D69" s="38"/>
+      <c r="D69" s="49"/>
       <c r="E69" s="24"/>
       <c r="F69" s="25"/>
       <c r="G69" s="26"/>
@@ -3427,10 +3282,10 @@
         <v>5</v>
       </c>
       <c r="B70" s="13"/>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="38"/>
+      <c r="D70" s="49"/>
       <c r="E70" s="24"/>
       <c r="F70" s="25"/>
       <c r="G70" s="26"/>
@@ -3451,10 +3306,10 @@
         <v>6</v>
       </c>
       <c r="B71" s="13"/>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="38"/>
+      <c r="D71" s="49"/>
       <c r="E71" s="24"/>
       <c r="F71" s="25"/>
       <c r="G71" s="26"/>
@@ -3475,10 +3330,10 @@
         <v>7</v>
       </c>
       <c r="B72" s="13"/>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D72" s="38"/>
+      <c r="D72" s="49"/>
       <c r="E72" s="24"/>
       <c r="F72" s="25"/>
       <c r="G72" s="26"/>
@@ -3499,10 +3354,10 @@
         <v>8</v>
       </c>
       <c r="B73" s="13"/>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="38"/>
+      <c r="D73" s="49"/>
       <c r="E73" s="24"/>
       <c r="F73" s="25"/>
       <c r="G73" s="26"/>
@@ -3521,10 +3376,10 @@
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="39"/>
+      <c r="D74" s="50"/>
       <c r="E74" s="24"/>
       <c r="F74" s="25"/>
       <c r="G74" s="26"/>
@@ -3547,25 +3402,25 @@
       <c r="R76"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="53"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="53"/>
-      <c r="O77" s="53"/>
-      <c r="P77" s="53"/>
-      <c r="Q77" s="53"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="51"/>
+      <c r="N77" s="51"/>
+      <c r="O77" s="51"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="51"/>
       <c r="R77"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -3573,10 +3428,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="15"/>
-      <c r="C78" s="49" t="s">
+      <c r="C78" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="49"/>
+      <c r="D78" s="52"/>
       <c r="E78" s="16" t="s">
         <v>62</v>
       </c>
@@ -3623,10 +3478,10 @@
         <v>1</v>
       </c>
       <c r="B79" s="13"/>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D79" s="38"/>
+      <c r="D79" s="49"/>
       <c r="E79" s="24"/>
       <c r="F79" s="25"/>
       <c r="G79" s="26"/>
@@ -3647,10 +3502,10 @@
         <v>2</v>
       </c>
       <c r="B80" s="13"/>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="38"/>
+      <c r="D80" s="49"/>
       <c r="E80" s="24"/>
       <c r="F80" s="25"/>
       <c r="G80" s="26"/>
@@ -3671,10 +3526,10 @@
         <v>3</v>
       </c>
       <c r="B81" s="13"/>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="38"/>
+      <c r="D81" s="49"/>
       <c r="E81" s="24"/>
       <c r="F81" s="25"/>
       <c r="G81" s="26"/>
@@ -3694,10 +3549,10 @@
         <v>4</v>
       </c>
       <c r="B82" s="13"/>
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="D82" s="38"/>
+      <c r="D82" s="49"/>
       <c r="E82" s="24"/>
       <c r="F82" s="25"/>
       <c r="G82" s="26"/>
@@ -3713,10 +3568,10 @@
       <c r="Q82" s="27"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D83" s="39"/>
+      <c r="D83" s="50"/>
       <c r="E83" s="24"/>
       <c r="F83" s="25"/>
       <c r="G83" s="26"/>
@@ -3733,57 +3588,6 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="A36:R36"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="A64:Q64"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="C62:N62"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="C48:K48"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A77:Q77"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="A3:W5"/>
@@ -3798,115 +3602,71 @@
     <mergeCell ref="C80:D80"/>
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="A6:R6"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="A77:Q77"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="A64:Q64"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="C62:N62"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="C18:K18"/>
     <mergeCell ref="C29:K29"/>
     <mergeCell ref="C30:K30"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C28:K28"/>
     <mergeCell ref="C31:K31"/>
     <mergeCell ref="C32:K32"/>
-    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C9:K32">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P9:P32">
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71C94488-CF28-40AA-928D-B5094C4A550B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q9:Q32">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U9:U32">
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="greaterThan">
-      <formula>79.27673274</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="greaterThan">
-      <formula>79.27673274</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="13" priority="27" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P9:P33">
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A2909DFC-FB81-4D38-AEAA-8FDA234EA6E7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q9:Q33">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U9:U33">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T9:T32">
-    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T39:T50">
-    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3949,10 +3709,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U39:U50">
-    <cfRule type="cellIs" dxfId="10" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="37" operator="greaterThan">
       <formula>79.27673274</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="38" operator="greaterThan">
       <formula>79.27673274</formula>
     </cfRule>
     <cfRule type="colorScale" priority="39">
@@ -3965,7 +3725,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="8" priority="40" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="9" priority="40" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39:P51">
     <cfRule type="dataBar" priority="41">
@@ -4006,7 +3766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T56:T61">
-    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="21" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4075,10 +3835,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U56:U62">
-    <cfRule type="cellIs" dxfId="6" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="49" operator="greaterThan">
       <formula>79.27673274</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="50" operator="greaterThan">
       <formula>79.27673274</formula>
     </cfRule>
     <cfRule type="colorScale" priority="51">
@@ -4091,7 +3851,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="4" priority="52" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="52" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U56:U62">
     <cfRule type="colorScale" priority="53">
@@ -4172,7 +3932,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="68" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4243,7 +4003,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="234" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="234" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4271,37 +4031,106 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C9:K32">
+    <cfRule type="colorScale" priority="237">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9:P32">
+    <cfRule type="dataBar" priority="239">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{71C94488-CF28-40AA-928D-B5094C4A550B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9:Q32">
+    <cfRule type="colorScale" priority="241">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:U32">
+    <cfRule type="cellIs" dxfId="2" priority="243" operator="greaterThan">
+      <formula>79.27673274</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="244" operator="greaterThan">
+      <formula>79.27673274</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="245">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="0" priority="246" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9:P33">
+    <cfRule type="dataBar" priority="251">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A2909DFC-FB81-4D38-AEAA-8FDA234EA6E7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9:Q33">
+    <cfRule type="colorScale" priority="253">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:U33">
+    <cfRule type="colorScale" priority="255">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{71C94488-CF28-40AA-928D-B5094C4A550B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P9:P32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A2909DFC-FB81-4D38-AEAA-8FDA234EA6E7}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P9:P33</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3932D22B-B2F7-450C-BEA1-F973B68A4F3A}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -4376,6 +4205,32 @@
           </x14:cfRule>
           <xm:sqref>I79:I82</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{71C94488-CF28-40AA-928D-B5094C4A550B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P9:P32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A2909DFC-FB81-4D38-AEAA-8FDA234EA6E7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P9:P33</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
